--- a/Data/free-free-system.xlsx
+++ b/Data/free-free-system.xlsx
@@ -1,69 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>depth</t>
-  </si>
-  <si>
-    <t>l1</t>
-  </si>
-  <si>
-    <t>l2</t>
-  </si>
-  <si>
-    <t>w1</t>
-  </si>
-  <si>
-    <t>w2</t>
-  </si>
-  <si>
-    <t>w3</t>
-  </si>
-  <si>
-    <t>w4</t>
-  </si>
-  <si>
-    <t>w5</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -71,23 +45,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -166,7 +144,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -201,7 +178,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -377,66 +353,3422 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H211"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="B2:C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>depth</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>l1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>l2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>w1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>w2</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>w3</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>w4</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>w5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4" t="n">
+        <v>44</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>52</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="C6" t="n">
+        <v>63</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" t="n">
+        <v>77</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="n">
+        <v>9</v>
+      </c>
+      <c r="C8" t="n">
+        <v>91</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>96</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="n">
+        <v>20</v>
+      </c>
+      <c r="C10" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="n">
+        <v>21</v>
+      </c>
+      <c r="C11" t="n">
+        <v>43</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="n">
+        <v>15</v>
+      </c>
+      <c r="C12" t="n">
+        <v>52</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="n">
+        <v>23</v>
+      </c>
+      <c r="C13" t="n">
+        <v>67</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="n">
+        <v>23</v>
+      </c>
+      <c r="C14" t="n">
+        <v>75</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="n">
+        <v>17</v>
+      </c>
+      <c r="C15" t="n">
+        <v>83</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>17</v>
+      </c>
+      <c r="C16" t="n">
+        <v>100</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="n">
+        <v>27</v>
+      </c>
+      <c r="C17" t="n">
+        <v>37</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="n">
+        <v>30</v>
+      </c>
+      <c r="C18" t="n">
+        <v>55</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="n">
+        <v>28</v>
+      </c>
+      <c r="C19" t="n">
+        <v>62</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="n">
+        <v>30</v>
+      </c>
+      <c r="C20" t="n">
+        <v>74</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="n">
+        <v>34</v>
+      </c>
+      <c r="C21" t="n">
+        <v>83</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="n">
+        <v>28</v>
+      </c>
+      <c r="C22" t="n">
+        <v>104</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="n">
+        <v>49</v>
+      </c>
+      <c r="C23" t="n">
+        <v>47</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="n">
+        <v>50</v>
+      </c>
+      <c r="C24" t="n">
+        <v>63</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" t="n">
+        <v>47</v>
+      </c>
+      <c r="C25" t="n">
+        <v>74</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="n">
+        <v>42</v>
+      </c>
+      <c r="C26" t="n">
+        <v>90</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" t="n">
+        <v>42</v>
+      </c>
+      <c r="C27" t="n">
+        <v>95</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" t="n">
+        <v>53</v>
+      </c>
+      <c r="C28" t="n">
+        <v>63</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" t="n">
+        <v>58</v>
+      </c>
+      <c r="C29" t="n">
+        <v>76</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" t="n">
+        <v>59</v>
+      </c>
+      <c r="C30" t="n">
+        <v>91</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" t="n">
+        <v>57</v>
+      </c>
+      <c r="C31" t="n">
+        <v>96</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="n">
+        <v>70</v>
+      </c>
+      <c r="C32" t="n">
+        <v>80</v>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" t="n">
+        <v>76</v>
+      </c>
+      <c r="C33" t="n">
+        <v>93</v>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" t="n">
+        <v>74</v>
+      </c>
+      <c r="C34" t="n">
+        <v>96</v>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" t="n">
+        <v>80</v>
+      </c>
+      <c r="C35" t="n">
+        <v>90</v>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" t="n">
+        <v>88</v>
+      </c>
+      <c r="C36" t="n">
+        <v>104</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2</v>
+      </c>
+      <c r="B37" t="n">
+        <v>6</v>
+      </c>
+      <c r="C37" t="n">
+        <v>17</v>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>2</v>
+      </c>
+      <c r="B38" t="n">
+        <v>9</v>
+      </c>
+      <c r="C38" t="n">
+        <v>29</v>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>2</v>
+      </c>
+      <c r="B39" t="n">
+        <v>2</v>
+      </c>
+      <c r="C39" t="n">
+        <v>41</v>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>2</v>
+      </c>
+      <c r="B40" t="n">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="C40" t="n">
+        <v>55</v>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2</v>
+      </c>
+      <c r="B41" t="n">
+        <v>11</v>
+      </c>
+      <c r="C41" t="n">
+        <v>60</v>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>2</v>
+      </c>
+      <c r="B42" t="n">
+        <v>9</v>
+      </c>
+      <c r="C42" t="n">
+        <v>76</v>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>2</v>
+      </c>
+      <c r="B43" t="n">
+        <v>2</v>
+      </c>
+      <c r="C43" t="n">
+        <v>83</v>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>2</v>
+      </c>
+      <c r="B44" t="n">
+        <v>9</v>
+      </c>
+      <c r="C44" t="n">
+        <v>105</v>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>2</v>
+      </c>
+      <c r="B45" t="n">
+        <v>22</v>
+      </c>
+      <c r="C45" t="n">
+        <v>33</v>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>2</v>
+      </c>
+      <c r="B46" t="n">
+        <v>22</v>
+      </c>
+      <c r="C46" t="n">
+        <v>37</v>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>2</v>
+      </c>
+      <c r="B47" t="n">
+        <v>20</v>
+      </c>
+      <c r="C47" t="n">
+        <v>55</v>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>2</v>
+      </c>
+      <c r="B48" t="n">
+        <v>15</v>
+      </c>
+      <c r="C48" t="n">
+        <v>67</v>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2</v>
+      </c>
+      <c r="B49" t="n">
+        <v>17</v>
+      </c>
+      <c r="C49" t="n">
+        <v>76</v>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>2</v>
+      </c>
+      <c r="B50" t="n">
+        <v>17</v>
+      </c>
+      <c r="C50" t="n">
+        <v>89</v>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>2</v>
+      </c>
+      <c r="B51" t="n">
+        <v>21</v>
+      </c>
+      <c r="C51" t="n">
+        <v>104</v>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2</v>
+      </c>
+      <c r="B52" t="n">
+        <v>27</v>
+      </c>
+      <c r="C52" t="n">
+        <v>43</v>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>2</v>
+      </c>
+      <c r="B53" t="n">
+        <v>28</v>
+      </c>
+      <c r="C53" t="n">
+        <v>55</v>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>2</v>
+      </c>
+      <c r="B54" t="n">
+        <v>37</v>
+      </c>
+      <c r="C54" t="n">
+        <v>60</v>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>2</v>
+      </c>
+      <c r="B55" t="n">
+        <v>37</v>
+      </c>
+      <c r="C55" t="n">
+        <v>77</v>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>2</v>
+      </c>
+      <c r="B56" t="n">
+        <v>33</v>
+      </c>
+      <c r="C56" t="n">
+        <v>85</v>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>2</v>
+      </c>
+      <c r="B57" t="n">
+        <v>35</v>
+      </c>
+      <c r="C57" t="n">
+        <v>99</v>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>2</v>
+      </c>
+      <c r="B58" t="n">
+        <v>45</v>
+      </c>
+      <c r="C58" t="n">
+        <v>50</v>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>2</v>
+      </c>
+      <c r="B59" t="n">
+        <v>44</v>
+      </c>
+      <c r="C59" t="n">
+        <v>69</v>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>2</v>
+      </c>
+      <c r="B60" t="n">
+        <v>40</v>
+      </c>
+      <c r="C60" t="n">
+        <v>81</v>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>2</v>
+      </c>
+      <c r="B61" t="n">
+        <v>48</v>
+      </c>
+      <c r="C61" t="n">
+        <v>83</v>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>2</v>
+      </c>
+      <c r="B62" t="n">
+        <v>44</v>
+      </c>
+      <c r="C62" t="n">
+        <v>100</v>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>2</v>
+      </c>
+      <c r="B63" t="n">
+        <v>57</v>
+      </c>
+      <c r="C63" t="n">
+        <v>67</v>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>2</v>
+      </c>
+      <c r="B64" t="n">
+        <v>56</v>
+      </c>
+      <c r="C64" t="n">
+        <v>79</v>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>2</v>
+      </c>
+      <c r="B65" t="n">
+        <v>57</v>
+      </c>
+      <c r="C65" t="n">
+        <v>91</v>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>2</v>
+      </c>
+      <c r="B66" t="n">
+        <v>53</v>
+      </c>
+      <c r="C66" t="n">
+        <v>96</v>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>2</v>
+      </c>
+      <c r="B67" t="n">
+        <v>68</v>
+      </c>
+      <c r="C67" t="n">
+        <v>74</v>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>2</v>
+      </c>
+      <c r="B68" t="n">
+        <v>73</v>
+      </c>
+      <c r="C68" t="n">
+        <v>90</v>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>2</v>
+      </c>
+      <c r="B69" t="n">
+        <v>68</v>
+      </c>
+      <c r="C69" t="n">
+        <v>95</v>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>2</v>
+      </c>
+      <c r="B70" t="n">
+        <v>83</v>
+      </c>
+      <c r="C70" t="n">
+        <v>89</v>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>2</v>
+      </c>
+      <c r="B71" t="n">
+        <v>81</v>
+      </c>
+      <c r="C71" t="n">
+        <v>97</v>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>3</v>
+      </c>
+      <c r="B72" t="n">
+        <v>2</v>
+      </c>
+      <c r="C72" t="n">
+        <v>14</v>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>3</v>
+      </c>
+      <c r="B73" t="n">
+        <v>10</v>
+      </c>
+      <c r="C73" t="n">
+        <v>31</v>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>3</v>
+      </c>
+      <c r="B74" t="n">
+        <v>10</v>
+      </c>
+      <c r="C74" t="n">
+        <v>43</v>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>3</v>
+      </c>
+      <c r="B75" t="n">
+        <v>3</v>
+      </c>
+      <c r="C75" t="n">
+        <v>51</v>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>3</v>
+      </c>
+      <c r="B76" t="n">
+        <v>6</v>
+      </c>
+      <c r="C76" t="n">
+        <v>63</v>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>3</v>
+      </c>
+      <c r="B77" t="n">
+        <v>2</v>
+      </c>
+      <c r="C77" t="n">
+        <v>78</v>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>3</v>
+      </c>
+      <c r="B78" t="n">
+        <v>4</v>
+      </c>
+      <c r="C78" t="n">
+        <v>90</v>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>3</v>
+      </c>
+      <c r="B79" t="n">
+        <v>2</v>
+      </c>
+      <c r="C79" t="n">
+        <v>96</v>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>3</v>
+      </c>
+      <c r="B80" t="n">
+        <v>14</v>
+      </c>
+      <c r="C80" t="n">
+        <v>29</v>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>3</v>
+      </c>
+      <c r="B81" t="n">
+        <v>18</v>
+      </c>
+      <c r="C81" t="n">
+        <v>42</v>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>3</v>
+      </c>
+      <c r="B82" t="n">
+        <v>16</v>
+      </c>
+      <c r="C82" t="n">
+        <v>47</v>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>3</v>
+      </c>
+      <c r="B83" t="n">
+        <v>22</v>
+      </c>
+      <c r="C83" t="n">
+        <v>67</v>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>3</v>
+      </c>
+      <c r="B84" t="n">
+        <v>18</v>
+      </c>
+      <c r="C84" t="n">
+        <v>80</v>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>3</v>
+      </c>
+      <c r="B85" t="n">
+        <v>21</v>
+      </c>
+      <c r="C85" t="n">
+        <v>93</v>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>3</v>
+      </c>
+      <c r="B86" t="n">
+        <v>19</v>
+      </c>
+      <c r="C86" t="n">
+        <v>99</v>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>3</v>
+      </c>
+      <c r="B87" t="n">
+        <v>36</v>
+      </c>
+      <c r="C87" t="n">
+        <v>36</v>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>3</v>
+      </c>
+      <c r="B88" t="n">
+        <v>36</v>
+      </c>
+      <c r="C88" t="n">
+        <v>47</v>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>3</v>
+      </c>
+      <c r="B89" t="n">
+        <v>32</v>
+      </c>
+      <c r="C89" t="n">
+        <v>68</v>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>3</v>
+      </c>
+      <c r="B90" t="n">
+        <v>30</v>
+      </c>
+      <c r="C90" t="n">
+        <v>74</v>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>3</v>
+      </c>
+      <c r="B91" t="n">
+        <v>33</v>
+      </c>
+      <c r="C91" t="n">
+        <v>93</v>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>3</v>
+      </c>
+      <c r="B92" t="n">
+        <v>29</v>
+      </c>
+      <c r="C92" t="n">
+        <v>100</v>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>3</v>
+      </c>
+      <c r="B93" t="n">
+        <v>40</v>
+      </c>
+      <c r="C93" t="n">
+        <v>52</v>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>3</v>
+      </c>
+      <c r="B94" t="n">
+        <v>41</v>
+      </c>
+      <c r="C94" t="n">
+        <v>61</v>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>3</v>
+      </c>
+      <c r="B95" t="n">
+        <v>41</v>
+      </c>
+      <c r="C95" t="n">
+        <v>80</v>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>3</v>
+      </c>
+      <c r="B96" t="n">
+        <v>41</v>
+      </c>
+      <c r="C96" t="n">
+        <v>86</v>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>3</v>
+      </c>
+      <c r="B97" t="n">
+        <v>48</v>
+      </c>
+      <c r="C97" t="n">
+        <v>103</v>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>3</v>
+      </c>
+      <c r="B98" t="n">
+        <v>62</v>
+      </c>
+      <c r="C98" t="n">
+        <v>61</v>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>3</v>
+      </c>
+      <c r="B99" t="n">
+        <v>62</v>
+      </c>
+      <c r="C99" t="n">
+        <v>79</v>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>3</v>
+      </c>
+      <c r="B100" t="n">
+        <v>53</v>
+      </c>
+      <c r="C100" t="n">
+        <v>90</v>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>3</v>
+      </c>
+      <c r="B101" t="n">
+        <v>56</v>
+      </c>
+      <c r="C101" t="n">
+        <v>97</v>
+      </c>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>3</v>
+      </c>
+      <c r="B102" t="n">
+        <v>66</v>
+      </c>
+      <c r="C102" t="n">
+        <v>77</v>
+      </c>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>3</v>
+      </c>
+      <c r="B103" t="n">
+        <v>66</v>
+      </c>
+      <c r="C103" t="n">
+        <v>85</v>
+      </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>3</v>
+      </c>
+      <c r="B104" t="n">
+        <v>76</v>
+      </c>
+      <c r="C104" t="n">
+        <v>98</v>
+      </c>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>3</v>
+      </c>
+      <c r="B105" t="n">
+        <v>81</v>
+      </c>
+      <c r="C105" t="n">
+        <v>91</v>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>3</v>
+      </c>
+      <c r="B106" t="n">
+        <v>89</v>
+      </c>
+      <c r="C106" t="n">
+        <v>98</v>
+      </c>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>4</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" t="n">
+        <v>16</v>
+      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>4</v>
+      </c>
+      <c r="B108" t="n">
+        <v>2</v>
+      </c>
+      <c r="C108" t="n">
+        <v>31</v>
+      </c>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>4</v>
+      </c>
+      <c r="B109" t="n">
+        <v>2</v>
+      </c>
+      <c r="C109" t="n">
+        <v>44</v>
+      </c>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>4</v>
+      </c>
+      <c r="B110" t="n">
+        <v>4</v>
+      </c>
+      <c r="C110" t="n">
+        <v>47</v>
+      </c>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>4</v>
+      </c>
+      <c r="B111" t="n">
+        <v>6</v>
+      </c>
+      <c r="C111" t="n">
+        <v>67</v>
+      </c>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>4</v>
+      </c>
+      <c r="B112" t="n">
+        <v>9</v>
+      </c>
+      <c r="C112" t="n">
+        <v>71</v>
+      </c>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>4</v>
+      </c>
+      <c r="B113" t="n">
+        <v>6</v>
+      </c>
+      <c r="C113" t="n">
+        <v>85</v>
+      </c>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>4</v>
+      </c>
+      <c r="B114" t="n">
+        <v>6</v>
+      </c>
+      <c r="C114" t="n">
+        <v>102</v>
+      </c>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>4</v>
+      </c>
+      <c r="B115" t="n">
+        <v>18</v>
+      </c>
+      <c r="C115" t="n">
+        <v>33</v>
+      </c>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>4</v>
+      </c>
+      <c r="B116" t="n">
+        <v>20</v>
+      </c>
+      <c r="C116" t="n">
+        <v>37</v>
+      </c>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>4</v>
+      </c>
+      <c r="B117" t="n">
+        <v>21</v>
+      </c>
+      <c r="C117" t="n">
+        <v>53</v>
+      </c>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>4</v>
+      </c>
+      <c r="B118" t="n">
+        <v>15</v>
+      </c>
+      <c r="C118" t="n">
+        <v>64</v>
+      </c>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>4</v>
+      </c>
+      <c r="B119" t="n">
+        <v>17</v>
+      </c>
+      <c r="C119" t="n">
+        <v>77</v>
+      </c>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>4</v>
+      </c>
+      <c r="B120" t="n">
+        <v>18</v>
+      </c>
+      <c r="C120" t="n">
+        <v>83</v>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>4</v>
+      </c>
+      <c r="B121" t="n">
+        <v>23</v>
+      </c>
+      <c r="C121" t="n">
+        <v>99</v>
+      </c>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>4</v>
+      </c>
+      <c r="B122" t="n">
+        <v>31</v>
+      </c>
+      <c r="C122" t="n">
+        <v>43</v>
+      </c>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>4</v>
+      </c>
+      <c r="B123" t="n">
+        <v>34</v>
+      </c>
+      <c r="C123" t="n">
+        <v>49</v>
+      </c>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>4</v>
+      </c>
+      <c r="B124" t="n">
+        <v>34</v>
+      </c>
+      <c r="C124" t="n">
+        <v>63</v>
+      </c>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>4</v>
+      </c>
+      <c r="B125" t="n">
+        <v>31</v>
+      </c>
+      <c r="C125" t="n">
+        <v>76</v>
+      </c>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>4</v>
+      </c>
+      <c r="B126" t="n">
+        <v>28</v>
+      </c>
+      <c r="C126" t="n">
+        <v>89</v>
+      </c>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>4</v>
+      </c>
+      <c r="B127" t="n">
+        <v>37</v>
+      </c>
+      <c r="C127" t="n">
+        <v>105</v>
+      </c>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>4</v>
+      </c>
+      <c r="B128" t="n">
+        <v>48</v>
+      </c>
+      <c r="C128" t="n">
+        <v>56</v>
+      </c>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>4</v>
+      </c>
+      <c r="B129" t="n">
+        <v>41</v>
+      </c>
+      <c r="C129" t="n">
+        <v>60</v>
+      </c>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>4</v>
+      </c>
+      <c r="B130" t="n">
+        <v>50</v>
+      </c>
+      <c r="C130" t="n">
+        <v>72</v>
+      </c>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>4</v>
+      </c>
+      <c r="B131" t="n">
+        <v>46</v>
+      </c>
+      <c r="C131" t="n">
+        <v>86</v>
+      </c>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>4</v>
+      </c>
+      <c r="B132" t="n">
+        <v>43</v>
+      </c>
+      <c r="C132" t="n">
+        <v>103</v>
+      </c>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>4</v>
+      </c>
+      <c r="B133" t="n">
+        <v>62</v>
+      </c>
+      <c r="C133" t="n">
+        <v>69</v>
+      </c>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>4</v>
+      </c>
+      <c r="B134" t="n">
+        <v>53</v>
+      </c>
+      <c r="C134" t="n">
+        <v>72</v>
+      </c>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>4</v>
+      </c>
+      <c r="B135" t="n">
+        <v>63</v>
+      </c>
+      <c r="C135" t="n">
+        <v>87</v>
+      </c>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>4</v>
+      </c>
+      <c r="B136" t="n">
+        <v>53</v>
+      </c>
+      <c r="C136" t="n">
+        <v>101</v>
+      </c>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>4</v>
+      </c>
+      <c r="B137" t="n">
+        <v>70</v>
+      </c>
+      <c r="C137" t="n">
+        <v>78</v>
+      </c>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>4</v>
+      </c>
+      <c r="B138" t="n">
+        <v>69</v>
+      </c>
+      <c r="C138" t="n">
+        <v>87</v>
+      </c>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>4</v>
+      </c>
+      <c r="B139" t="n">
+        <v>75</v>
+      </c>
+      <c r="C139" t="n">
+        <v>102</v>
+      </c>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>4</v>
+      </c>
+      <c r="B140" t="n">
+        <v>83</v>
+      </c>
+      <c r="C140" t="n">
+        <v>89</v>
+      </c>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>4</v>
+      </c>
+      <c r="B141" t="n">
+        <v>83</v>
+      </c>
+      <c r="C141" t="n">
+        <v>102</v>
+      </c>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>5</v>
+      </c>
+      <c r="B142" t="n">
         <v>7</v>
       </c>
+      <c r="C142" t="n">
+        <v>12</v>
+      </c>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>5</v>
+      </c>
+      <c r="B143" t="n">
+        <v>7</v>
+      </c>
+      <c r="C143" t="n">
+        <v>28</v>
+      </c>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>5</v>
+      </c>
+      <c r="B144" t="n">
+        <v>6</v>
+      </c>
+      <c r="C144" t="n">
+        <v>44</v>
+      </c>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>5</v>
+      </c>
+      <c r="B145" t="n">
+        <v>7</v>
+      </c>
+      <c r="C145" t="n">
+        <v>55</v>
+      </c>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>5</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+      <c r="C146" t="n">
+        <v>69</v>
+      </c>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>5</v>
+      </c>
+      <c r="B147" t="n">
+        <v>9</v>
+      </c>
+      <c r="C147" t="n">
+        <v>72</v>
+      </c>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>5</v>
+      </c>
+      <c r="B148" t="n">
+        <v>6</v>
+      </c>
+      <c r="C148" t="n">
+        <v>86</v>
+      </c>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>5</v>
+      </c>
+      <c r="B149" t="n">
+        <v>2</v>
+      </c>
+      <c r="C149" t="n">
+        <v>95</v>
+      </c>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>5</v>
+      </c>
+      <c r="B150" t="n">
+        <v>20</v>
+      </c>
+      <c r="C150" t="n">
+        <v>27</v>
+      </c>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>5</v>
+      </c>
+      <c r="B151" t="n">
+        <v>18</v>
+      </c>
+      <c r="C151" t="n">
+        <v>41</v>
+      </c>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>5</v>
+      </c>
+      <c r="B152" t="n">
+        <v>22</v>
+      </c>
+      <c r="C152" t="n">
+        <v>51</v>
+      </c>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>5</v>
+      </c>
+      <c r="B153" t="n">
+        <v>21</v>
+      </c>
+      <c r="C153" t="n">
+        <v>60</v>
+      </c>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>5</v>
+      </c>
+      <c r="B154" t="n">
+        <v>23</v>
+      </c>
+      <c r="C154" t="n">
+        <v>81</v>
+      </c>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>5</v>
+      </c>
+      <c r="B155" t="n">
+        <v>17</v>
+      </c>
+      <c r="C155" t="n">
+        <v>92</v>
+      </c>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>5</v>
+      </c>
+      <c r="B156" t="n">
+        <v>17</v>
+      </c>
+      <c r="C156" t="n">
+        <v>98</v>
+      </c>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>5</v>
+      </c>
+      <c r="B157" t="n">
+        <v>36</v>
+      </c>
+      <c r="C157" t="n">
+        <v>36</v>
+      </c>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>5</v>
+      </c>
+      <c r="B158" t="n">
+        <v>35</v>
+      </c>
+      <c r="C158" t="n">
+        <v>56</v>
+      </c>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>5</v>
+      </c>
+      <c r="B159" t="n">
+        <v>27</v>
+      </c>
+      <c r="C159" t="n">
+        <v>62</v>
+      </c>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>5</v>
+      </c>
+      <c r="B160" t="n">
+        <v>32</v>
+      </c>
+      <c r="C160" t="n">
+        <v>81</v>
+      </c>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>5</v>
+      </c>
+      <c r="B161" t="n">
+        <v>27</v>
+      </c>
+      <c r="C161" t="n">
+        <v>88</v>
+      </c>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>5</v>
+      </c>
+      <c r="B162" t="n">
+        <v>36</v>
+      </c>
+      <c r="C162" t="n">
+        <v>104</v>
+      </c>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>5</v>
+      </c>
+      <c r="B163" t="n">
+        <v>45</v>
+      </c>
+      <c r="C163" t="n">
+        <v>47</v>
+      </c>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>5</v>
+      </c>
+      <c r="B164" t="n">
+        <v>43</v>
+      </c>
+      <c r="C164" t="n">
+        <v>65</v>
+      </c>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>5</v>
+      </c>
+      <c r="B165" t="n">
+        <v>40</v>
+      </c>
+      <c r="C165" t="n">
+        <v>80</v>
+      </c>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>5</v>
+      </c>
+      <c r="B166" t="n">
+        <v>48</v>
+      </c>
+      <c r="C166" t="n">
+        <v>92</v>
+      </c>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>5</v>
+      </c>
+      <c r="B167" t="n">
+        <v>50</v>
+      </c>
+      <c r="C167" t="n">
+        <v>101</v>
+      </c>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>5</v>
+      </c>
+      <c r="B168" t="n">
+        <v>57</v>
+      </c>
+      <c r="C168" t="n">
+        <v>69</v>
+      </c>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="inlineStr"/>
+      <c r="H168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>5</v>
+      </c>
+      <c r="B169" t="n">
+        <v>59</v>
+      </c>
+      <c r="C169" t="n">
+        <v>80</v>
+      </c>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>5</v>
+      </c>
+      <c r="B170" t="n">
+        <v>63</v>
+      </c>
+      <c r="C170" t="n">
+        <v>91</v>
+      </c>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="inlineStr"/>
+      <c r="H170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>5</v>
+      </c>
+      <c r="B171" t="n">
+        <v>59</v>
+      </c>
+      <c r="C171" t="n">
+        <v>105</v>
+      </c>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>5</v>
+      </c>
+      <c r="B172" t="n">
+        <v>69</v>
+      </c>
+      <c r="C172" t="n">
+        <v>73</v>
+      </c>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>5</v>
+      </c>
+      <c r="B173" t="n">
+        <v>76</v>
+      </c>
+      <c r="C173" t="n">
+        <v>92</v>
+      </c>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>5</v>
+      </c>
+      <c r="B174" t="n">
+        <v>68</v>
+      </c>
+      <c r="C174" t="n">
+        <v>96</v>
+      </c>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>5</v>
+      </c>
+      <c r="B175" t="n">
+        <v>84</v>
+      </c>
+      <c r="C175" t="n">
+        <v>93</v>
+      </c>
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="inlineStr"/>
+      <c r="H175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>5</v>
+      </c>
+      <c r="B176" t="n">
+        <v>85</v>
+      </c>
+      <c r="C176" t="n">
+        <v>99</v>
+      </c>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr"/>
+      <c r="H176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>6</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1</v>
+      </c>
+      <c r="C177" t="n">
+        <v>14</v>
+      </c>
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>6</v>
+      </c>
+      <c r="B178" t="n">
+        <v>2</v>
+      </c>
+      <c r="C178" t="n">
+        <v>31</v>
+      </c>
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="inlineStr"/>
+      <c r="H178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>6</v>
+      </c>
+      <c r="B179" t="n">
+        <v>2</v>
+      </c>
+      <c r="C179" t="n">
+        <v>38</v>
+      </c>
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="inlineStr"/>
+      <c r="H179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>6</v>
+      </c>
+      <c r="B180" t="n">
+        <v>9</v>
+      </c>
+      <c r="C180" t="n">
+        <v>52</v>
+      </c>
+      <c r="D180" t="inlineStr"/>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="inlineStr"/>
+      <c r="G180" t="inlineStr"/>
+      <c r="H180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>6</v>
+      </c>
+      <c r="B181" t="n">
+        <v>7</v>
+      </c>
+      <c r="C181" t="n">
+        <v>59</v>
+      </c>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>6</v>
+      </c>
+      <c r="B182" t="n">
+        <v>7</v>
+      </c>
+      <c r="C182" t="n">
+        <v>71</v>
+      </c>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>6</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5</v>
+      </c>
+      <c r="C183" t="n">
+        <v>83</v>
+      </c>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>6</v>
+      </c>
+      <c r="B184" t="n">
+        <v>10</v>
+      </c>
+      <c r="C184" t="n">
+        <v>97</v>
+      </c>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>6</v>
+      </c>
+      <c r="B185" t="n">
+        <v>14</v>
+      </c>
+      <c r="C185" t="n">
+        <v>23</v>
+      </c>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>6</v>
+      </c>
+      <c r="B186" t="n">
+        <v>19</v>
+      </c>
+      <c r="C186" t="n">
+        <v>35</v>
+      </c>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>6</v>
+      </c>
+      <c r="B187" t="n">
+        <v>14</v>
+      </c>
+      <c r="C187" t="n">
+        <v>55</v>
+      </c>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>6</v>
+      </c>
+      <c r="B188" t="n">
+        <v>15</v>
+      </c>
+      <c r="C188" t="n">
+        <v>59</v>
+      </c>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>6</v>
+      </c>
+      <c r="B189" t="n">
+        <v>23</v>
+      </c>
+      <c r="C189" t="n">
+        <v>78</v>
+      </c>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>6</v>
+      </c>
+      <c r="B190" t="n">
+        <v>15</v>
+      </c>
+      <c r="C190" t="n">
+        <v>91</v>
+      </c>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>6</v>
+      </c>
+      <c r="B191" t="n">
+        <v>23</v>
+      </c>
+      <c r="C191" t="n">
+        <v>100</v>
+      </c>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>6</v>
+      </c>
+      <c r="B192" t="n">
+        <v>35</v>
+      </c>
+      <c r="C192" t="n">
+        <v>38</v>
+      </c>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>6</v>
+      </c>
+      <c r="B193" t="n">
+        <v>31</v>
+      </c>
+      <c r="C193" t="n">
+        <v>49</v>
+      </c>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>6</v>
+      </c>
+      <c r="B194" t="n">
+        <v>28</v>
+      </c>
+      <c r="C194" t="n">
+        <v>64</v>
+      </c>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>6</v>
+      </c>
+      <c r="B195" t="n">
+        <v>32</v>
+      </c>
+      <c r="C195" t="n">
+        <v>79</v>
+      </c>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>6</v>
+      </c>
+      <c r="B196" t="n">
+        <v>30</v>
+      </c>
+      <c r="C196" t="n">
+        <v>87</v>
+      </c>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>6</v>
+      </c>
+      <c r="B197" t="n">
+        <v>33</v>
+      </c>
+      <c r="C197" t="n">
+        <v>104</v>
+      </c>
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="inlineStr"/>
+      <c r="F197" t="inlineStr"/>
+      <c r="G197" t="inlineStr"/>
+      <c r="H197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>6</v>
+      </c>
+      <c r="B198" t="n">
+        <v>46</v>
+      </c>
+      <c r="C198" t="n">
+        <v>57</v>
+      </c>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>6</v>
+      </c>
+      <c r="B199" t="n">
+        <v>49</v>
+      </c>
+      <c r="C199" t="n">
+        <v>63</v>
+      </c>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>6</v>
+      </c>
+      <c r="B200" t="n">
+        <v>46</v>
+      </c>
+      <c r="C200" t="n">
+        <v>81</v>
+      </c>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>6</v>
+      </c>
+      <c r="B201" t="n">
+        <v>45</v>
+      </c>
+      <c r="C201" t="n">
+        <v>88</v>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>6</v>
+      </c>
+      <c r="B202" t="n">
+        <v>48</v>
+      </c>
+      <c r="C202" t="n">
+        <v>103</v>
+      </c>
+      <c r="D202" t="inlineStr"/>
+      <c r="E202" t="inlineStr"/>
+      <c r="F202" t="inlineStr"/>
+      <c r="G202" t="inlineStr"/>
+      <c r="H202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>6</v>
+      </c>
+      <c r="B203" t="n">
+        <v>63</v>
+      </c>
+      <c r="C203" t="n">
+        <v>66</v>
+      </c>
+      <c r="D203" t="inlineStr"/>
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="inlineStr"/>
+      <c r="G203" t="inlineStr"/>
+      <c r="H203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>6</v>
+      </c>
+      <c r="B204" t="n">
+        <v>57</v>
+      </c>
+      <c r="C204" t="n">
+        <v>71</v>
+      </c>
+      <c r="D204" t="inlineStr"/>
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="inlineStr"/>
+      <c r="G204" t="inlineStr"/>
+      <c r="H204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>6</v>
+      </c>
+      <c r="B205" t="n">
+        <v>62</v>
+      </c>
+      <c r="C205" t="n">
+        <v>85</v>
+      </c>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr"/>
+      <c r="F205" t="inlineStr"/>
+      <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>6</v>
+      </c>
+      <c r="B206" t="n">
+        <v>53</v>
+      </c>
+      <c r="C206" t="n">
+        <v>102</v>
+      </c>
+      <c r="D206" t="inlineStr"/>
+      <c r="E206" t="inlineStr"/>
+      <c r="F206" t="inlineStr"/>
+      <c r="G206" t="inlineStr"/>
+      <c r="H206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>6</v>
+      </c>
+      <c r="B207" t="n">
+        <v>68</v>
+      </c>
+      <c r="C207" t="n">
+        <v>79</v>
+      </c>
+      <c r="D207" t="inlineStr"/>
+      <c r="E207" t="inlineStr"/>
+      <c r="F207" t="inlineStr"/>
+      <c r="G207" t="inlineStr"/>
+      <c r="H207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>6</v>
+      </c>
+      <c r="B208" t="n">
+        <v>67</v>
+      </c>
+      <c r="C208" t="n">
+        <v>85</v>
+      </c>
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" t="inlineStr"/>
+      <c r="G208" t="inlineStr"/>
+      <c r="H208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>6</v>
+      </c>
+      <c r="B209" t="n">
+        <v>75</v>
+      </c>
+      <c r="C209" t="n">
+        <v>99</v>
+      </c>
+      <c r="D209" t="inlineStr"/>
+      <c r="E209" t="inlineStr"/>
+      <c r="F209" t="inlineStr"/>
+      <c r="G209" t="inlineStr"/>
+      <c r="H209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>6</v>
+      </c>
+      <c r="B210" t="n">
+        <v>83</v>
+      </c>
+      <c r="C210" t="n">
+        <v>87</v>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>6</v>
+      </c>
+      <c r="B211" t="n">
+        <v>82</v>
+      </c>
+      <c r="C211" t="n">
+        <v>105</v>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Data/free-free-system.xlsx
+++ b/Data/free-free-system.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H211"/>
+  <dimension ref="A1:I211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -407,6 +407,11 @@
           <t>w5</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>deflection</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -423,6 +428,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -439,6 +445,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -455,6 +462,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -471,6 +479,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -487,6 +496,7 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -503,6 +513,7 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -519,6 +530,7 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -535,6 +547,7 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -551,6 +564,7 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -567,6 +581,7 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -583,6 +598,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -599,6 +615,7 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -615,6 +632,7 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -631,6 +649,7 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -647,6 +666,7 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -663,6 +683,7 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -679,6 +700,7 @@
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -695,6 +717,7 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -711,6 +734,7 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -727,6 +751,7 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -743,6 +768,7 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -759,6 +785,7 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -775,6 +802,7 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -791,6 +819,7 @@
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -807,6 +836,7 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -823,6 +853,7 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -839,6 +870,7 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -855,6 +887,7 @@
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -871,6 +904,7 @@
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -887,6 +921,7 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -903,6 +938,7 @@
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -919,6 +955,7 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -935,6 +972,7 @@
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -951,6 +989,7 @@
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -967,6 +1006,7 @@
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -983,6 +1023,7 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -999,6 +1040,7 @@
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1015,6 +1057,7 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1031,6 +1074,7 @@
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1047,6 +1091,7 @@
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1063,6 +1108,7 @@
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1079,6 +1125,7 @@
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1095,6 +1142,7 @@
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1111,6 +1159,7 @@
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1127,6 +1176,7 @@
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1143,6 +1193,7 @@
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1159,6 +1210,7 @@
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1175,6 +1227,7 @@
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1191,6 +1244,7 @@
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1207,6 +1261,7 @@
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1223,6 +1278,7 @@
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1239,6 +1295,7 @@
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1255,6 +1312,7 @@
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1271,6 +1329,7 @@
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1287,6 +1346,7 @@
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1303,6 +1363,7 @@
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1319,6 +1380,7 @@
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1335,6 +1397,7 @@
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1351,6 +1414,7 @@
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1367,6 +1431,7 @@
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1383,6 +1448,7 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1399,6 +1465,7 @@
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1415,6 +1482,7 @@
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1431,6 +1499,7 @@
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1447,6 +1516,7 @@
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1463,6 +1533,7 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1479,6 +1550,7 @@
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -1495,6 +1567,7 @@
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -1511,6 +1584,7 @@
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1527,6 +1601,7 @@
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1543,6 +1618,7 @@
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1559,6 +1635,7 @@
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1575,6 +1652,7 @@
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -1591,6 +1669,7 @@
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -1607,6 +1686,7 @@
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -1623,6 +1703,7 @@
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -1639,6 +1720,7 @@
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -1655,6 +1737,7 @@
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -1671,6 +1754,7 @@
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -1687,6 +1771,7 @@
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -1703,6 +1788,7 @@
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -1719,6 +1805,7 @@
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -1735,6 +1822,7 @@
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -1751,6 +1839,7 @@
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -1767,6 +1856,7 @@
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -1783,6 +1873,7 @@
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -1799,6 +1890,7 @@
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -1815,6 +1907,7 @@
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -1831,6 +1924,7 @@
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -1847,6 +1941,7 @@
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -1863,6 +1958,7 @@
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -1879,6 +1975,7 @@
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -1895,6 +1992,7 @@
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -1911,6 +2009,7 @@
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -1927,6 +2026,7 @@
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -1943,6 +2043,7 @@
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -1959,6 +2060,7 @@
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -1975,6 +2077,7 @@
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -1991,6 +2094,7 @@
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -2007,6 +2111,7 @@
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -2023,6 +2128,7 @@
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -2039,6 +2145,7 @@
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -2055,6 +2162,7 @@
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -2071,6 +2179,7 @@
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -2087,6 +2196,7 @@
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -2103,6 +2213,7 @@
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -2119,6 +2230,7 @@
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -2135,6 +2247,7 @@
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -2151,6 +2264,7 @@
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -2167,6 +2281,7 @@
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -2183,6 +2298,7 @@
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -2199,6 +2315,7 @@
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -2215,6 +2332,7 @@
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -2231,6 +2349,7 @@
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -2247,6 +2366,7 @@
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -2263,6 +2383,7 @@
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -2279,6 +2400,7 @@
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -2295,6 +2417,7 @@
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -2311,6 +2434,7 @@
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -2327,6 +2451,7 @@
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -2343,6 +2468,7 @@
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -2359,6 +2485,7 @@
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -2375,6 +2502,7 @@
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -2391,6 +2519,7 @@
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -2407,6 +2536,7 @@
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -2423,6 +2553,7 @@
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -2439,6 +2570,7 @@
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -2455,6 +2587,7 @@
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -2471,6 +2604,7 @@
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -2487,6 +2621,7 @@
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -2503,6 +2638,7 @@
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -2519,6 +2655,7 @@
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -2535,6 +2672,7 @@
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -2551,6 +2689,7 @@
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -2567,6 +2706,7 @@
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -2583,6 +2723,7 @@
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -2599,6 +2740,7 @@
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -2615,6 +2757,7 @@
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -2631,6 +2774,7 @@
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -2647,6 +2791,7 @@
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -2663,6 +2808,7 @@
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -2679,6 +2825,7 @@
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -2695,6 +2842,7 @@
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -2711,6 +2859,7 @@
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -2727,6 +2876,7 @@
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -2743,6 +2893,7 @@
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -2759,6 +2910,7 @@
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -2775,6 +2927,7 @@
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -2791,6 +2944,7 @@
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -2807,6 +2961,7 @@
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -2823,6 +2978,7 @@
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -2839,6 +2995,7 @@
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -2855,6 +3012,7 @@
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -2871,6 +3029,7 @@
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -2887,6 +3046,7 @@
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -2903,6 +3063,7 @@
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -2919,6 +3080,7 @@
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -2935,6 +3097,7 @@
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -2951,6 +3114,7 @@
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -2967,6 +3131,7 @@
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -2983,6 +3148,7 @@
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -2999,6 +3165,7 @@
       <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -3015,6 +3182,7 @@
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -3031,6 +3199,7 @@
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -3047,6 +3216,7 @@
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -3063,6 +3233,7 @@
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -3079,6 +3250,7 @@
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -3095,6 +3267,7 @@
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -3111,6 +3284,7 @@
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -3127,6 +3301,7 @@
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -3143,6 +3318,7 @@
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -3159,6 +3335,7 @@
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -3175,6 +3352,7 @@
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -3191,6 +3369,7 @@
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -3207,6 +3386,7 @@
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -3223,6 +3403,7 @@
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -3239,6 +3420,7 @@
       <c r="F178" t="inlineStr"/>
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -3255,6 +3437,7 @@
       <c r="F179" t="inlineStr"/>
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -3271,6 +3454,7 @@
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -3287,6 +3471,7 @@
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -3303,6 +3488,7 @@
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -3319,6 +3505,7 @@
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -3335,6 +3522,7 @@
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -3351,6 +3539,7 @@
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -3367,6 +3556,7 @@
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -3383,6 +3573,7 @@
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -3399,6 +3590,7 @@
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -3415,6 +3607,7 @@
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -3431,6 +3624,7 @@
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="inlineStr"/>
       <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -3447,6 +3641,7 @@
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -3463,6 +3658,7 @@
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -3479,6 +3675,7 @@
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -3495,6 +3692,7 @@
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr"/>
       <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -3511,6 +3709,7 @@
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr"/>
       <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -3527,6 +3726,7 @@
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr"/>
       <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -3543,6 +3743,7 @@
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -3559,6 +3760,7 @@
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -3575,6 +3777,7 @@
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -3591,6 +3794,7 @@
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -3607,6 +3811,7 @@
       <c r="F201" t="inlineStr"/>
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -3623,6 +3828,7 @@
       <c r="F202" t="inlineStr"/>
       <c r="G202" t="inlineStr"/>
       <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -3639,6 +3845,7 @@
       <c r="F203" t="inlineStr"/>
       <c r="G203" t="inlineStr"/>
       <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -3655,6 +3862,7 @@
       <c r="F204" t="inlineStr"/>
       <c r="G204" t="inlineStr"/>
       <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -3671,6 +3879,7 @@
       <c r="F205" t="inlineStr"/>
       <c r="G205" t="inlineStr"/>
       <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -3687,6 +3896,7 @@
       <c r="F206" t="inlineStr"/>
       <c r="G206" t="inlineStr"/>
       <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -3703,6 +3913,7 @@
       <c r="F207" t="inlineStr"/>
       <c r="G207" t="inlineStr"/>
       <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -3719,6 +3930,7 @@
       <c r="F208" t="inlineStr"/>
       <c r="G208" t="inlineStr"/>
       <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -3735,6 +3947,7 @@
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -3751,6 +3964,7 @@
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -3767,6 +3981,7 @@
       <c r="F211" t="inlineStr"/>
       <c r="G211" t="inlineStr"/>
       <c r="H211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/Data/free-free-system.xlsx
+++ b/Data/free-free-system.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I211"/>
+  <dimension ref="A1:I212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -415,13 +415,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
@@ -432,13 +432,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
@@ -449,13 +449,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
@@ -466,13 +466,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
@@ -483,13 +483,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -500,13 +500,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
@@ -517,13 +517,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
@@ -534,13 +534,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
@@ -551,13 +551,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
@@ -568,13 +568,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
@@ -585,13 +585,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C12" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
@@ -602,13 +602,13 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C13" t="n">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
@@ -619,13 +619,13 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
         <v>23</v>
       </c>
       <c r="C14" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
@@ -636,13 +636,13 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C15" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
@@ -653,13 +653,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
         <v>17</v>
       </c>
       <c r="C16" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
@@ -670,13 +670,13 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C17" t="n">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
@@ -687,13 +687,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C18" t="n">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
@@ -704,13 +704,13 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C19" t="n">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
@@ -721,13 +721,13 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C20" t="n">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
@@ -738,13 +738,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C21" t="n">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
@@ -755,13 +755,13 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C22" t="n">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
@@ -772,13 +772,13 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="C23" t="n">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
@@ -789,13 +789,13 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" t="n">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
@@ -806,13 +806,13 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C25" t="n">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
@@ -823,13 +823,13 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C26" t="n">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
@@ -840,13 +840,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B27" t="n">
         <v>42</v>
       </c>
       <c r="C27" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
@@ -857,13 +857,13 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C28" t="n">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
@@ -874,13 +874,13 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C29" t="n">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
@@ -891,13 +891,13 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C30" t="n">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
@@ -908,13 +908,13 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C31" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
@@ -925,13 +925,13 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C32" t="n">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
@@ -942,13 +942,13 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C33" t="n">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
@@ -959,13 +959,13 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C34" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
@@ -976,13 +976,13 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C35" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
@@ -993,13 +993,13 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C36" t="n">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
@@ -1010,13 +1010,13 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="C37" t="n">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
@@ -1027,13 +1027,13 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B38" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C38" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
@@ -1044,13 +1044,13 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B39" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C39" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
@@ -1061,13 +1061,13 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C40" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
@@ -1078,13 +1078,13 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B41" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
@@ -1095,13 +1095,13 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B42" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C42" t="n">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
@@ -1112,13 +1112,13 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B43" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C43" t="n">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
@@ -1129,13 +1129,13 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B44" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C44" t="n">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
@@ -1146,13 +1146,13 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B45" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C45" t="n">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
@@ -1163,13 +1163,13 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B46" t="n">
         <v>22</v>
       </c>
       <c r="C46" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
@@ -1180,13 +1180,13 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B47" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C47" t="n">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
@@ -1197,13 +1197,13 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B48" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C48" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
@@ -1214,13 +1214,13 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B49" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C49" t="n">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
@@ -1231,13 +1231,13 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B50" t="n">
         <v>17</v>
       </c>
       <c r="C50" t="n">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
@@ -1248,13 +1248,13 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B51" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C51" t="n">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
@@ -1265,13 +1265,13 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B52" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C52" t="n">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
@@ -1282,13 +1282,13 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B53" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C53" t="n">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
@@ -1299,13 +1299,13 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B54" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C54" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
@@ -1316,13 +1316,13 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B55" t="n">
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
@@ -1333,13 +1333,13 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B56" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C56" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
@@ -1350,13 +1350,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B57" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C57" t="n">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
@@ -1367,13 +1367,13 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B58" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C58" t="n">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
@@ -1384,13 +1384,13 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B59" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C59" t="n">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
@@ -1401,13 +1401,13 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B60" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C60" t="n">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
@@ -1418,13 +1418,13 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B61" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C61" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
@@ -1435,13 +1435,13 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B62" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C62" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
@@ -1452,13 +1452,13 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B63" t="n">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C63" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
@@ -1469,13 +1469,13 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B64" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C64" t="n">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
@@ -1486,13 +1486,13 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B65" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C65" t="n">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
@@ -1503,13 +1503,13 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B66" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C66" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
@@ -1520,13 +1520,13 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B67" t="n">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C67" t="n">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
@@ -1537,13 +1537,13 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B68" t="n">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C68" t="n">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
@@ -1554,13 +1554,13 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B69" t="n">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C69" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
@@ -1571,13 +1571,13 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B70" t="n">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C70" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
@@ -1588,13 +1588,13 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B71" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C71" t="n">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
@@ -1605,13 +1605,13 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B72" t="n">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="C72" t="n">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
@@ -1622,13 +1622,13 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B73" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C73" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
@@ -1639,13 +1639,13 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B74" t="n">
         <v>10</v>
       </c>
       <c r="C74" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
@@ -1656,13 +1656,13 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B75" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C75" t="n">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
@@ -1673,13 +1673,13 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
+        <v>2</v>
+      </c>
+      <c r="B76" t="n">
         <v>3</v>
       </c>
-      <c r="B76" t="n">
-        <v>6</v>
-      </c>
       <c r="C76" t="n">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
@@ -1690,13 +1690,13 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B77" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C77" t="n">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
@@ -1707,13 +1707,13 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C78" t="n">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
@@ -1724,13 +1724,13 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C79" t="n">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
@@ -1741,13 +1741,13 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B80" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C80" t="n">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
@@ -1758,13 +1758,13 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B81" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C81" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
@@ -1775,13 +1775,13 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B82" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C82" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
@@ -1792,13 +1792,13 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B83" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C83" t="n">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
@@ -1809,13 +1809,13 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B84" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C84" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
@@ -1826,13 +1826,13 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B85" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C85" t="n">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
@@ -1843,13 +1843,13 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B86" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C86" t="n">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
@@ -1860,13 +1860,13 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B87" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C87" t="n">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
@@ -1877,13 +1877,13 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B88" t="n">
         <v>36</v>
       </c>
       <c r="C88" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
@@ -1894,13 +1894,13 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B89" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C89" t="n">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
@@ -1911,13 +1911,13 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B90" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C90" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
@@ -1928,13 +1928,13 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B91" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C91" t="n">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
@@ -1945,13 +1945,13 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B92" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C92" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
@@ -1962,13 +1962,13 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B93" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C93" t="n">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
@@ -1979,13 +1979,13 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B94" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C94" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
@@ -1996,13 +1996,13 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B95" t="n">
         <v>41</v>
       </c>
       <c r="C95" t="n">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
@@ -2013,13 +2013,13 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B96" t="n">
         <v>41</v>
       </c>
       <c r="C96" t="n">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
@@ -2030,13 +2030,13 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B97" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C97" t="n">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
@@ -2047,13 +2047,13 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B98" t="n">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C98" t="n">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
@@ -2064,13 +2064,13 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B99" t="n">
         <v>62</v>
       </c>
       <c r="C99" t="n">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
@@ -2081,13 +2081,13 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B100" t="n">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C100" t="n">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
@@ -2098,13 +2098,13 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B101" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C101" t="n">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
@@ -2115,13 +2115,13 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B102" t="n">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C102" t="n">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
@@ -2132,13 +2132,13 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B103" t="n">
         <v>66</v>
       </c>
       <c r="C103" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
@@ -2149,13 +2149,13 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B104" t="n">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C104" t="n">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
@@ -2166,13 +2166,13 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B105" t="n">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C105" t="n">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
@@ -2183,13 +2183,13 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B106" t="n">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C106" t="n">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
@@ -2200,13 +2200,13 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="C107" t="n">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
@@ -2217,13 +2217,13 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
@@ -2234,13 +2234,13 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B109" t="n">
         <v>2</v>
       </c>
       <c r="C109" t="n">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr"/>
@@ -2251,13 +2251,13 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B110" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C110" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
@@ -2268,13 +2268,13 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
+        <v>3</v>
+      </c>
+      <c r="B111" t="n">
         <v>4</v>
       </c>
-      <c r="B111" t="n">
-        <v>6</v>
-      </c>
       <c r="C111" t="n">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
@@ -2285,13 +2285,13 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B112" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C112" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
@@ -2302,13 +2302,13 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B113" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C113" t="n">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
@@ -2319,13 +2319,13 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B114" t="n">
         <v>6</v>
       </c>
       <c r="C114" t="n">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
@@ -2336,13 +2336,13 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B115" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C115" t="n">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr"/>
@@ -2353,13 +2353,13 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B116" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C116" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
@@ -2370,13 +2370,13 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B117" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C117" t="n">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -2387,13 +2387,13 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B118" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C118" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr"/>
@@ -2404,13 +2404,13 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B119" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C119" t="n">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
@@ -2421,13 +2421,13 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B120" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C120" t="n">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr"/>
@@ -2438,13 +2438,13 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B121" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C121" t="n">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr"/>
@@ -2455,13 +2455,13 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B122" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C122" t="n">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr"/>
@@ -2472,13 +2472,13 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B123" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C123" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr"/>
@@ -2489,13 +2489,13 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B124" t="n">
         <v>34</v>
       </c>
       <c r="C124" t="n">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr"/>
@@ -2506,13 +2506,13 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B125" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C125" t="n">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr"/>
@@ -2523,13 +2523,13 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B126" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C126" t="n">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr"/>
@@ -2540,13 +2540,13 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B127" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C127" t="n">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr"/>
@@ -2557,13 +2557,13 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B128" t="n">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C128" t="n">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr"/>
@@ -2574,13 +2574,13 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B129" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C129" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr"/>
@@ -2591,13 +2591,13 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B130" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C130" t="n">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr"/>
@@ -2608,13 +2608,13 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B131" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C131" t="n">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr"/>
@@ -2625,13 +2625,13 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B132" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C132" t="n">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr"/>
@@ -2642,13 +2642,13 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B133" t="n">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="C133" t="n">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr"/>
@@ -2659,13 +2659,13 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B134" t="n">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C134" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr"/>
@@ -2676,13 +2676,13 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B135" t="n">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C135" t="n">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr"/>
@@ -2693,13 +2693,13 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B136" t="n">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C136" t="n">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr"/>
@@ -2710,13 +2710,13 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B137" t="n">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C137" t="n">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr"/>
@@ -2727,13 +2727,13 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B138" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C138" t="n">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr"/>
@@ -2744,13 +2744,13 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B139" t="n">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C139" t="n">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr"/>
@@ -2761,13 +2761,13 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B140" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C140" t="n">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr"/>
@@ -2778,13 +2778,13 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B141" t="n">
         <v>83</v>
       </c>
       <c r="C141" t="n">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr"/>
@@ -2795,13 +2795,13 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B142" t="n">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="C142" t="n">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr"/>
@@ -2812,13 +2812,13 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B143" t="n">
         <v>7</v>
       </c>
       <c r="C143" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr"/>
@@ -2829,13 +2829,13 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B144" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C144" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr"/>
@@ -2846,13 +2846,13 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B145" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C145" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr"/>
@@ -2863,13 +2863,13 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B146" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C146" t="n">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr"/>
@@ -2880,13 +2880,13 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B147" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr"/>
@@ -2897,13 +2897,13 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B148" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C148" t="n">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr"/>
@@ -2914,13 +2914,13 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B149" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C149" t="n">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr"/>
@@ -2931,13 +2931,13 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B150" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C150" t="n">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr"/>
@@ -2948,13 +2948,13 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B151" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C151" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr"/>
@@ -2965,13 +2965,13 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B152" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C152" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr"/>
@@ -2982,13 +2982,13 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B153" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C153" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr"/>
@@ -2999,13 +2999,13 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B154" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C154" t="n">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr"/>
@@ -3016,13 +3016,13 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B155" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C155" t="n">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr"/>
@@ -3033,13 +3033,13 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B156" t="n">
         <v>17</v>
       </c>
       <c r="C156" t="n">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr"/>
@@ -3050,13 +3050,13 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B157" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C157" t="n">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr"/>
@@ -3067,13 +3067,13 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B158" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C158" t="n">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr"/>
@@ -3084,13 +3084,13 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B159" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C159" t="n">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr"/>
@@ -3101,13 +3101,13 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B160" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C160" t="n">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr"/>
@@ -3118,13 +3118,13 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B161" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C161" t="n">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr"/>
@@ -3135,13 +3135,13 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B162" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C162" t="n">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr"/>
@@ -3152,13 +3152,13 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B163" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C163" t="n">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr"/>
@@ -3169,13 +3169,13 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B164" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C164" t="n">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr"/>
@@ -3186,13 +3186,13 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B165" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C165" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr"/>
@@ -3203,13 +3203,13 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B166" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C166" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr"/>
@@ -3220,13 +3220,13 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B167" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C167" t="n">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr"/>
@@ -3237,13 +3237,13 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B168" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C168" t="n">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr"/>
@@ -3254,13 +3254,13 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B169" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C169" t="n">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr"/>
@@ -3271,13 +3271,13 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B170" t="n">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C170" t="n">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr"/>
@@ -3288,13 +3288,13 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B171" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C171" t="n">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr"/>
@@ -3305,13 +3305,13 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B172" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C172" t="n">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr"/>
@@ -3322,13 +3322,13 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B173" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C173" t="n">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr"/>
@@ -3339,13 +3339,13 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B174" t="n">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C174" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D174" t="inlineStr"/>
       <c r="E174" t="inlineStr"/>
@@ -3356,13 +3356,13 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B175" t="n">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C175" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D175" t="inlineStr"/>
       <c r="E175" t="inlineStr"/>
@@ -3373,13 +3373,13 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B176" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C176" t="n">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr"/>
@@ -3390,13 +3390,13 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B177" t="n">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="C177" t="n">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr"/>
@@ -3407,13 +3407,13 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C178" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr"/>
@@ -3424,13 +3424,13 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B179" t="n">
         <v>2</v>
       </c>
       <c r="C179" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D179" t="inlineStr"/>
       <c r="E179" t="inlineStr"/>
@@ -3441,13 +3441,13 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B180" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C180" t="n">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr"/>
@@ -3458,13 +3458,13 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B181" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C181" t="n">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr"/>
@@ -3475,13 +3475,13 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B182" t="n">
         <v>7</v>
       </c>
       <c r="C182" t="n">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr"/>
@@ -3492,13 +3492,13 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B183" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C183" t="n">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr"/>
@@ -3509,13 +3509,13 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B184" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C184" t="n">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr"/>
@@ -3526,13 +3526,13 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B185" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C185" t="n">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr"/>
@@ -3543,13 +3543,13 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B186" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C186" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr"/>
@@ -3560,13 +3560,13 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B187" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C187" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr"/>
@@ -3577,13 +3577,13 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B188" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C188" t="n">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr"/>
@@ -3594,13 +3594,13 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B189" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C189" t="n">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr"/>
@@ -3611,13 +3611,13 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B190" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C190" t="n">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr"/>
@@ -3628,13 +3628,13 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B191" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C191" t="n">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr"/>
@@ -3645,13 +3645,13 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B192" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C192" t="n">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr"/>
@@ -3662,13 +3662,13 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B193" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C193" t="n">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr"/>
@@ -3679,13 +3679,13 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B194" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C194" t="n">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr"/>
@@ -3696,13 +3696,13 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B195" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C195" t="n">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr"/>
@@ -3713,13 +3713,13 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B196" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C196" t="n">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr"/>
@@ -3730,13 +3730,13 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B197" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C197" t="n">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr"/>
@@ -3747,13 +3747,13 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B198" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C198" t="n">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
@@ -3764,13 +3764,13 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B199" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C199" t="n">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr"/>
@@ -3781,13 +3781,13 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B200" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C200" t="n">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr"/>
@@ -3798,13 +3798,13 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B201" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C201" t="n">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D201" t="inlineStr"/>
       <c r="E201" t="inlineStr"/>
@@ -3815,13 +3815,13 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B202" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C202" t="n">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="D202" t="inlineStr"/>
       <c r="E202" t="inlineStr"/>
@@ -3832,13 +3832,13 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B203" t="n">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C203" t="n">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr"/>
@@ -3849,13 +3849,13 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B204" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C204" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr"/>
@@ -3866,13 +3866,13 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B205" t="n">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C205" t="n">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D205" t="inlineStr"/>
       <c r="E205" t="inlineStr"/>
@@ -3883,13 +3883,13 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B206" t="n">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C206" t="n">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D206" t="inlineStr"/>
       <c r="E206" t="inlineStr"/>
@@ -3900,13 +3900,13 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B207" t="n">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C207" t="n">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr"/>
@@ -3917,13 +3917,13 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B208" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C208" t="n">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D208" t="inlineStr"/>
       <c r="E208" t="inlineStr"/>
@@ -3934,13 +3934,13 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B209" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C209" t="n">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr"/>
@@ -3951,13 +3951,13 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B210" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C210" t="n">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr"/>
@@ -3968,13 +3968,13 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B211" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C211" t="n">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr"/>
@@ -3983,6 +3983,23 @@
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
     </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>5</v>
+      </c>
+      <c r="B212" t="n">
+        <v>82</v>
+      </c>
+      <c r="C212" t="n">
+        <v>105</v>
+      </c>
+      <c r="D212" t="inlineStr"/>
+      <c r="E212" t="inlineStr"/>
+      <c r="F212" t="inlineStr"/>
+      <c r="G212" t="inlineStr"/>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/free-free-system.xlsx
+++ b/Data/free-free-system.xlsx
@@ -432,7 +432,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B3" t="n">
         <v>6</v>
@@ -449,7 +449,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B4" t="n">
         <v>4</v>
@@ -466,7 +466,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B5" t="n">
         <v>8</v>
@@ -483,7 +483,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B6" t="n">
         <v>4</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B7" t="n">
         <v>3</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B8" t="n">
         <v>8</v>
@@ -534,7 +534,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B9" t="n">
         <v>9</v>
@@ -551,7 +551,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B10" t="n">
         <v>11</v>
@@ -568,7 +568,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B11" t="n">
         <v>20</v>
@@ -585,7 +585,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B12" t="n">
         <v>21</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B13" t="n">
         <v>15</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B14" t="n">
         <v>23</v>
@@ -636,7 +636,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B15" t="n">
         <v>23</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B16" t="n">
         <v>17</v>
@@ -670,7 +670,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B17" t="n">
         <v>17</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B18" t="n">
         <v>27</v>
@@ -704,7 +704,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B19" t="n">
         <v>30</v>
@@ -721,7 +721,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B20" t="n">
         <v>28</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B21" t="n">
         <v>30</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B22" t="n">
         <v>34</v>
@@ -772,7 +772,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B23" t="n">
         <v>28</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B24" t="n">
         <v>49</v>
@@ -806,7 +806,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B25" t="n">
         <v>50</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B26" t="n">
         <v>47</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B27" t="n">
         <v>42</v>
@@ -857,7 +857,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B28" t="n">
         <v>42</v>
@@ -874,7 +874,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B29" t="n">
         <v>53</v>
@@ -891,7 +891,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B30" t="n">
         <v>58</v>
@@ -908,7 +908,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B31" t="n">
         <v>59</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B32" t="n">
         <v>57</v>
@@ -942,7 +942,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B33" t="n">
         <v>70</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B34" t="n">
         <v>76</v>
@@ -976,7 +976,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B35" t="n">
         <v>74</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B36" t="n">
         <v>80</v>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B37" t="n">
         <v>88</v>

--- a/Data/free-free-system.xlsx
+++ b/Data/free-free-system.xlsx
@@ -676,7 +676,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
@@ -778,7 +778,7 @@
         <v>28</v>
       </c>
       <c r="C23" t="n">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
@@ -1016,7 +1016,7 @@
         <v>88</v>
       </c>
       <c r="C37" t="n">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
@@ -1152,7 +1152,7 @@
         <v>9</v>
       </c>
       <c r="C45" t="n">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
@@ -1271,7 +1271,7 @@
         <v>21</v>
       </c>
       <c r="C52" t="n">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
@@ -1458,7 +1458,7 @@
         <v>44</v>
       </c>
       <c r="C63" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
@@ -1968,7 +1968,7 @@
         <v>29</v>
       </c>
       <c r="C93" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
@@ -2053,7 +2053,7 @@
         <v>48</v>
       </c>
       <c r="C98" t="n">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
@@ -2342,7 +2342,7 @@
         <v>6</v>
       </c>
       <c r="C115" t="n">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>37</v>
       </c>
       <c r="C128" t="n">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr"/>
@@ -2648,7 +2648,7 @@
         <v>43</v>
       </c>
       <c r="C133" t="n">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr"/>
@@ -2716,7 +2716,7 @@
         <v>53</v>
       </c>
       <c r="C137" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr"/>
@@ -2767,7 +2767,7 @@
         <v>75</v>
       </c>
       <c r="C140" t="n">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr"/>
@@ -2801,7 +2801,7 @@
         <v>83</v>
       </c>
       <c r="C142" t="n">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr"/>
@@ -3158,7 +3158,7 @@
         <v>36</v>
       </c>
       <c r="C163" t="n">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr"/>
@@ -3243,7 +3243,7 @@
         <v>50</v>
       </c>
       <c r="C168" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr"/>
@@ -3311,7 +3311,7 @@
         <v>59</v>
       </c>
       <c r="C172" t="n">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr"/>
@@ -3651,7 +3651,7 @@
         <v>23</v>
       </c>
       <c r="C192" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr"/>
@@ -3753,7 +3753,7 @@
         <v>33</v>
       </c>
       <c r="C198" t="n">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
@@ -3838,7 +3838,7 @@
         <v>48</v>
       </c>
       <c r="C203" t="n">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr"/>
@@ -3906,7 +3906,7 @@
         <v>53</v>
       </c>
       <c r="C207" t="n">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr"/>
@@ -3991,7 +3991,7 @@
         <v>82</v>
       </c>
       <c r="C212" t="n">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr"/>
